--- a/Agil-Epics-User-Stories-V1.xlsx
+++ b/Agil-Epics-User-Stories-V1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training-Material\TrainingMaterialFinal\JIRA-Agile-Management-Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dover-PhaseOne-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4942D6F8-FB43-4D8C-A7ED-40909C4FA63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AB3E9B-3486-458A-AA19-0861C1E7631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3B3D3671-168B-49A0-B659-FF60B1B304E4}"/>
   </bookViews>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983FE6D-5B9E-40F8-9022-CDC52FEA87A6}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -883,7 +883,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
